--- a/database/seeders/data/users.xlsx
+++ b/database/seeders/data/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad.anwar26\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\syaukaniabr\projects\laravel\djpb-inzil-app\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F785F5FB-BE8F-4453-8858-47F9A2EB1BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CD3F2-1D3B-400E-BDCB-67318184228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3570" windowWidth="19200" windowHeight="11710"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,31 @@
   <definedNames>
     <definedName name="query" localSheetId="0" hidden="1">query!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\ahmad.anwar26\Downloads\query.iqy" keepAlive="1" name="query" type="5" refreshedVersion="7" minRefreshableVersion="3" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\ahmad.anwar26\Downloads\query.iqy" keepAlive="1" name="query" type="5" refreshedVersion="7" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;7667A0F3-43EB-4DC2-898C-CE40F8345C06&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;57f3d547-7edd-4fdd-8c5a-3225a093d67f&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://kemenkeu.sharepoint.com/sites/TURTKanwilDJPbKaltim/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
   <si>
     <t>Nama</t>
   </si>
@@ -68,15 +74,6 @@
     <t>199809192021012001</t>
   </si>
   <si>
-    <t>Pelaksana</t>
-  </si>
-  <si>
-    <t>Umum</t>
-  </si>
-  <si>
-    <t>19 September 1998</t>
-  </si>
-  <si>
     <t>sarah.asih@kemenkeu.go.id</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>200107262023021002</t>
   </si>
   <si>
-    <t>26 Juli 2001</t>
-  </si>
-  <si>
     <t>ahmad.anwar26@kemenkeu.go.id</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>197509181999032001</t>
   </si>
   <si>
-    <t>Kepala Bagian</t>
-  </si>
-  <si>
-    <t>18 September 1975</t>
-  </si>
-  <si>
     <t>rohaniah@kemenkeu.go.id</t>
   </si>
   <si>
@@ -119,15 +107,6 @@
     <t>197101101998031001</t>
   </si>
   <si>
-    <t>Kepala Bidang</t>
-  </si>
-  <si>
-    <t>PPA I</t>
-  </si>
-  <si>
-    <t>10 Januari 1971</t>
-  </si>
-  <si>
     <t>gunawan.supriyanto@kemenkeu.go.id</t>
   </si>
   <si>
@@ -137,12 +116,6 @@
     <t>197405011994021002</t>
   </si>
   <si>
-    <t>PPA II</t>
-  </si>
-  <si>
-    <t>1 Mei 1974</t>
-  </si>
-  <si>
     <t>wahyumusukhal@kemenkeu.go.id</t>
   </si>
   <si>
@@ -152,12 +125,6 @@
     <t>197510261999032001</t>
   </si>
   <si>
-    <t>PAPK</t>
-  </si>
-  <si>
-    <t>26 Oktober 1975</t>
-  </si>
-  <si>
     <t>Riska.Harfeni@kemenkeu.go.id</t>
   </si>
   <si>
@@ -167,12 +134,6 @@
     <t>197303101999031001</t>
   </si>
   <si>
-    <t>SKKI</t>
-  </si>
-  <si>
-    <t>10 Maret 1973</t>
-  </si>
-  <si>
     <t>mustriyono@kemenkeu.go.id</t>
   </si>
   <si>
@@ -182,12 +143,6 @@
     <t>199106152015021003</t>
   </si>
   <si>
-    <t>Kepala Subbagian</t>
-  </si>
-  <si>
-    <t>15 Juni 1991</t>
-  </si>
-  <si>
     <t>aurarahman@kemenkeu.go.id</t>
   </si>
   <si>
@@ -197,9 +152,6 @@
     <t>197911302001121002</t>
   </si>
   <si>
-    <t>30 November 1979</t>
-  </si>
-  <si>
     <t>joni.himawan@kemenkeu.go.id</t>
   </si>
   <si>
@@ -209,9 +161,6 @@
     <t>198002122001121004</t>
   </si>
   <si>
-    <t>12 Februari 1980</t>
-  </si>
-  <si>
     <t>radit.andika@kemenkeu.go.id</t>
   </si>
   <si>
@@ -221,9 +170,6 @@
     <t>198404122006021004</t>
   </si>
   <si>
-    <t>12 April 1984</t>
-  </si>
-  <si>
     <t>indra.sulistyo@kemenkeu.go.id</t>
   </si>
   <si>
@@ -233,12 +179,6 @@
     <t>198307082003121003</t>
   </si>
   <si>
-    <t>Kepala Seksi</t>
-  </si>
-  <si>
-    <t>8 Juli 1983</t>
-  </si>
-  <si>
     <t>yuliariyadi@kemenkeu.go.id</t>
   </si>
   <si>
@@ -248,9 +188,6 @@
     <t>198909042010121007</t>
   </si>
   <si>
-    <t>4 September 1989</t>
-  </si>
-  <si>
     <t>stephanus.dewanto@kemenkeu.go.id</t>
   </si>
   <si>
@@ -260,9 +197,6 @@
     <t>198309092003121002</t>
   </si>
   <si>
-    <t>9 September 1983</t>
-  </si>
-  <si>
     <t>ali.akbar@kemenkeu.go.id</t>
   </si>
   <si>
@@ -272,9 +206,6 @@
     <t>198705162010121005</t>
   </si>
   <si>
-    <t>16 Mei 1987</t>
-  </si>
-  <si>
     <t>subandi87@kemenkeu.go.id</t>
   </si>
   <si>
@@ -284,9 +215,6 @@
     <t>199008302012101002</t>
   </si>
   <si>
-    <t>30 Agustus 1990</t>
-  </si>
-  <si>
     <t>cahyawisnu@kemenkeu.go.id</t>
   </si>
   <si>
@@ -296,9 +224,6 @@
     <t>198608062010121007</t>
   </si>
   <si>
-    <t>6 Agustus 1986</t>
-  </si>
-  <si>
     <t>ayat.hidayat@kemenkeu.go.id</t>
   </si>
   <si>
@@ -308,9 +233,6 @@
     <t>198207222006021002</t>
   </si>
   <si>
-    <t>22 Juli 1982</t>
-  </si>
-  <si>
     <t>adhi.kus@kemenkeu.go.id</t>
   </si>
   <si>
@@ -320,9 +242,6 @@
     <t>197202221994021001</t>
   </si>
   <si>
-    <t>22 Februari 1972</t>
-  </si>
-  <si>
     <t>suroso72@kemenkeu.go.id</t>
   </si>
   <si>
@@ -332,9 +251,6 @@
     <t>198403292006021003</t>
   </si>
   <si>
-    <t>29 Maret 1984</t>
-  </si>
-  <si>
     <t>sulis.permono@kemenkeu.go.id</t>
   </si>
   <si>
@@ -344,9 +260,6 @@
     <t>198201072003121001</t>
   </si>
   <si>
-    <t>7 Januari 1982</t>
-  </si>
-  <si>
     <t>tri.wibowo@kemenkeu.go.id</t>
   </si>
   <si>
@@ -356,9 +269,6 @@
     <t>198005032003121001</t>
   </si>
   <si>
-    <t>3 Mei 1980</t>
-  </si>
-  <si>
     <t>budi.suprapto@kemenkeu.go.id</t>
   </si>
   <si>
@@ -368,9 +278,6 @@
     <t>198405072006021003</t>
   </si>
   <si>
-    <t>7 Mei 1984</t>
-  </si>
-  <si>
     <t>wahono@kemenkeu.go.id</t>
   </si>
   <si>
@@ -380,9 +287,6 @@
     <t>199712062021012001</t>
   </si>
   <si>
-    <t>6 Desember 1997</t>
-  </si>
-  <si>
     <t>milla.rachmana@kemenkeu.go.id</t>
   </si>
   <si>
@@ -392,9 +296,6 @@
     <t>199909292023022001</t>
   </si>
   <si>
-    <t>29 September 1999</t>
-  </si>
-  <si>
     <t>viana.fialiyah@kemenkeu.go.id</t>
   </si>
   <si>
@@ -404,9 +305,6 @@
     <t>200012262023022003</t>
   </si>
   <si>
-    <t>26 Desember 2000</t>
-  </si>
-  <si>
     <t>laila.syaputri@kemenkeu.go.id</t>
   </si>
   <si>
@@ -416,9 +314,6 @@
     <t>200004202022012001</t>
   </si>
   <si>
-    <t>20 April 2000</t>
-  </si>
-  <si>
     <t>gandhissa.vijayanti@kemenkeu.go.id</t>
   </si>
   <si>
@@ -428,9 +323,6 @@
     <t>199608222018012002</t>
   </si>
   <si>
-    <t>22 Agustus 1996</t>
-  </si>
-  <si>
     <t>vidaariani@kemenkeu.go.id</t>
   </si>
   <si>
@@ -440,9 +332,6 @@
     <t>200010202019122002</t>
   </si>
   <si>
-    <t>20 Oktober 2000</t>
-  </si>
-  <si>
     <t>erlin.ragilia@kemenkeu.go.id</t>
   </si>
   <si>
@@ -452,9 +341,6 @@
     <t>200101152023022002</t>
   </si>
   <si>
-    <t>15 Januari 2001</t>
-  </si>
-  <si>
     <t>nadya.firdaus@kemenkeu.go.id</t>
   </si>
   <si>
@@ -464,9 +350,6 @@
     <t>200104082023021001</t>
   </si>
   <si>
-    <t>8 April 2001</t>
-  </si>
-  <si>
     <t>putra.pako@kemenkeu.go.id</t>
   </si>
   <si>
@@ -476,9 +359,6 @@
     <t>200007292023022002</t>
   </si>
   <si>
-    <t>29 Juli 2000</t>
-  </si>
-  <si>
     <t>rizka.fadlilah@kemenkeu.go.id</t>
   </si>
   <si>
@@ -488,9 +368,6 @@
     <t>199909052023021002</t>
   </si>
   <si>
-    <t>5 September 1999</t>
-  </si>
-  <si>
     <t>rangga.wijaksono@kemenkeu.go.id</t>
   </si>
   <si>
@@ -500,9 +377,6 @@
     <t>199908212022012002</t>
   </si>
   <si>
-    <t>21 Agustus 1999</t>
-  </si>
-  <si>
     <t>alkhansazhafranaqila@kemenkeu.go.id</t>
   </si>
   <si>
@@ -512,9 +386,6 @@
     <t>199805112021011003</t>
   </si>
   <si>
-    <t>11 Mei 1998</t>
-  </si>
-  <si>
     <t>aditya.nugroho11@kemenkeu.go.id</t>
   </si>
   <si>
@@ -524,9 +395,6 @@
     <t>200006132023021001</t>
   </si>
   <si>
-    <t>13 Juni 2000</t>
-  </si>
-  <si>
     <t>gusnanda.permana@kemenkeu.go.id</t>
   </si>
   <si>
@@ -536,9 +404,6 @@
     <t>199301022013101001</t>
   </si>
   <si>
-    <t>2 Januari 1993</t>
-  </si>
-  <si>
     <t>yanuar.putra@kemenkeu.go.id</t>
   </si>
   <si>
@@ -548,9 +413,6 @@
     <t>200108152023021002</t>
   </si>
   <si>
-    <t>15 Agustus 2001</t>
-  </si>
-  <si>
     <t>alfian.ferdiansyah@kemenkeu.go.id</t>
   </si>
   <si>
@@ -560,9 +422,6 @@
     <t>200105042022012001</t>
   </si>
   <si>
-    <t>4 Mei 2001</t>
-  </si>
-  <si>
     <t>diah.karunia@kemenkeu.go.id</t>
   </si>
   <si>
@@ -572,9 +431,6 @@
     <t>200003152023022002</t>
   </si>
   <si>
-    <t>15 Maret 2000</t>
-  </si>
-  <si>
     <t>indah.zaira@kemenkeu.go.id</t>
   </si>
   <si>
@@ -584,9 +440,6 @@
     <t>199905262021012004</t>
   </si>
   <si>
-    <t>26 Mei 1999</t>
-  </si>
-  <si>
     <t>aviceina.putri@kemenkeu.go.id</t>
   </si>
   <si>
@@ -596,17 +449,140 @@
     <t>199901202021012001</t>
   </si>
   <si>
-    <t>20 Januari 1999</t>
-  </si>
-  <si>
     <t>chyntia.as@kemenkeu.go.id</t>
+  </si>
+  <si>
+    <t>19/09/1998</t>
+  </si>
+  <si>
+    <t>26/07/2001</t>
+  </si>
+  <si>
+    <t>18/09/1975</t>
+  </si>
+  <si>
+    <t>10/01/1971</t>
+  </si>
+  <si>
+    <t>01/05/1974</t>
+  </si>
+  <si>
+    <t>26/10/1975</t>
+  </si>
+  <si>
+    <t>10/03/1973</t>
+  </si>
+  <si>
+    <t>15/06/1991</t>
+  </si>
+  <si>
+    <t>30/11/1979</t>
+  </si>
+  <si>
+    <t>12/02/1980</t>
+  </si>
+  <si>
+    <t>12/04/1984</t>
+  </si>
+  <si>
+    <t>08/07/1983</t>
+  </si>
+  <si>
+    <t>04/09/1989</t>
+  </si>
+  <si>
+    <t>09/09/1983</t>
+  </si>
+  <si>
+    <t>16/05/1987</t>
+  </si>
+  <si>
+    <t>30/08/1990</t>
+  </si>
+  <si>
+    <t>06/08/1986</t>
+  </si>
+  <si>
+    <t>22/07/1982</t>
+  </si>
+  <si>
+    <t>22/02/1972</t>
+  </si>
+  <si>
+    <t>29/03/1984</t>
+  </si>
+  <si>
+    <t>07/01/1982</t>
+  </si>
+  <si>
+    <t>03/05/1980</t>
+  </si>
+  <si>
+    <t>07/05/1984</t>
+  </si>
+  <si>
+    <t>06/12/1997</t>
+  </si>
+  <si>
+    <t>29/09/1999</t>
+  </si>
+  <si>
+    <t>26/12/2000</t>
+  </si>
+  <si>
+    <t>20/04/2000</t>
+  </si>
+  <si>
+    <t>22/08/1996</t>
+  </si>
+  <si>
+    <t>20/10/2000</t>
+  </si>
+  <si>
+    <t>15/01/2001</t>
+  </si>
+  <si>
+    <t>08/04/2001</t>
+  </si>
+  <si>
+    <t>29/07/2000</t>
+  </si>
+  <si>
+    <t>05/09/1999</t>
+  </si>
+  <si>
+    <t>21/08/1999</t>
+  </si>
+  <si>
+    <t>11/05/1998</t>
+  </si>
+  <si>
+    <t>13/06/2000</t>
+  </si>
+  <si>
+    <t>02/01/1993</t>
+  </si>
+  <si>
+    <t>15/08/2001</t>
+  </si>
+  <si>
+    <t>04/05/2001</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>26/05/1999</t>
+  </si>
+  <si>
+    <t>20/01/1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +717,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1039,7 +1023,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1082,13 +1066,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1122,6 +1111,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1143,7 +1133,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1178,7 +1168,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="query" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query" backgroundRefresh="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="Nama" tableColumnId="1"/>
@@ -1195,17 +1185,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_query" displayName="Table_query" ref="A1:H43" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:H43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="Title" name="Nama" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" uniqueName="Email" name="Email" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="NIP" name="NIP" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="4" uniqueName="Jabatan" name="Jabatan" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="5" uniqueName="UnitKerja" name="BagianBidang" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="6" uniqueName="TanggalLahir" name="Tanggal Lahir" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="7" uniqueName="FSObjType" name="Item Type" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="8" uniqueName="FileDirRef" name="Path" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Title" name="Nama" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Email" name="Email" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="NIP" name="NIP" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Jabatan" name="Jabatan" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="UnitKerja" name="BagianBidang" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TanggalLahir" name="Tanggal Lahir" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="FileDirRef" name="Path" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,24 +1497,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1550,1102 +1545,1149 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="K43" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7329C114-D6EB-4909-9C57-4ABFC70E59F1}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{A582FE80-2D0D-41B7-9FE0-03F6FE0D5C02}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{B13A9B87-7D9C-4A52-A729-C79101EF5EC4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/database/seeders/data/users.xlsx
+++ b/database/seeders/data/users.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\syaukaniabr\projects\laravel\djpb-inzil-app\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CD3F2-1D3B-400E-BDCB-67318184228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE3F82-10C5-48C2-BDF9-04758A1D4BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query" localSheetId="0" hidden="1">query!$A$1:$H$43</definedName>
+    <definedName name="query" localSheetId="0" hidden="1">query!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Nama</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Item Type</t>
-  </si>
-  <si>
     <t>Sarah Tresno Asih</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>sarah.asih@kemenkeu.go.id</t>
   </si>
   <si>
-    <t>sites/TURTKanwilDJPbKaltim/Lists/DaftarPegawai</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Ahmad Inzil Anwar</t>
   </si>
   <si>
@@ -576,13 +564,142 @@
   </si>
   <si>
     <t>20/01/1999</t>
+  </si>
+  <si>
+    <t>profile-photos/rohaniah.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/wahyumusukhal.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/mustriyono.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/aurarahman.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/yuliariyadi.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/cahyawisnu.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/wahono.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/sarah_asih.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/gunawan_supriyanto.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/joni_himawan.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/indra_sulistyo.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/stephanus_dewanto.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/ali_akbar.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/ayat_hidayat.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/adhi_kus.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/sulis_permono.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/tri_wibowo.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/budi_suprapto.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/milla_rachmana.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/viana_fialiyah.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/ahmad_anwar.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/subandi.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/suroso.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/riska_harfeni.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/laila_syaputri.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/gandhissa.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/vidaariani.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/erlin_ragilia.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/nadya_firdaus.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/putra_pako.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/rizka_fadlilah.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/rangga_wijaksono.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/alkhansa.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/aditya_nugroho.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/gusnanda.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/yanuar_putra.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/alfian_ferdiansyah.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/diah_karunia.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/indah_zaira.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/aviceina.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/chyntia.jpg</t>
+  </si>
+  <si>
+    <t>profile-photos/radite_andika.jpg</t>
+  </si>
+  <si>
+    <t>Photo Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +838,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1068,7 +1192,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1076,6 +1200,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1122,11 +1248,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1169,33 +1291,35 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query" backgroundRefresh="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="10" unboundColumnsRight="1">
+    <queryTableFields count="7">
       <queryTableField id="1" name="Nama" tableColumnId="1"/>
       <queryTableField id="6" name="Email" tableColumnId="2"/>
       <queryTableField id="2" name="NIP" tableColumnId="3"/>
       <queryTableField id="3" name="Jabatan" tableColumnId="4"/>
       <queryTableField id="4" name="BagianBidang" tableColumnId="5"/>
       <queryTableField id="5" name="Tanggal Lahir" tableColumnId="6"/>
-      <queryTableField id="8" name="Item Type" tableColumnId="7"/>
-      <queryTableField id="7" name="Path" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="7"/>
     </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="Item Type"/>
+      <deletedField name="Path"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:H43" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Title" name="Nama" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Email" name="Email" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="NIP" name="NIP" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Jabatan" name="Jabatan" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="UnitKerja" name="BagianBidang" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TanggalLahir" name="Tanggal Lahir" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="FileDirRef" name="Path" queryTableFieldId="7" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:G43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Title" name="Nama" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Email" name="Email" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="NIP" name="NIP" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Jabatan" name="Jabatan" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="UnitKerja" name="BagianBidang" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TanggalLahir" name="Tanggal Lahir" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B5566D31-C0DE-4975-950B-428896D6ABF1}" uniqueName="7" name="Photo Profile" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1498,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,14 +1636,14 @@
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.21875" customWidth="1"/>
     <col min="8" max="8" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,21 +1663,18 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1562,25 +1683,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1589,25 +1707,22 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1616,25 +1731,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1643,25 +1755,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1670,25 +1779,22 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1697,25 +1803,22 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1724,25 +1827,22 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1751,25 +1851,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1778,25 +1875,22 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1805,25 +1899,22 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1832,25 +1923,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1859,25 +1947,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1886,25 +1971,22 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1913,25 +1995,22 @@
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1940,25 +2019,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1967,25 +2043,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1994,25 +2067,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2021,25 +2091,22 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2048,25 +2115,22 @@
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -2075,25 +2139,22 @@
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2102,25 +2163,22 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -2129,25 +2187,22 @@
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2156,25 +2211,22 @@
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2183,25 +2235,22 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -2210,25 +2259,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -2237,25 +2283,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2264,25 +2307,22 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -2291,25 +2331,22 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -2318,25 +2355,22 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2345,25 +2379,22 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -2372,25 +2403,22 @@
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -2399,25 +2427,22 @@
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -2426,25 +2451,22 @@
         <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -2453,25 +2475,22 @@
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -2480,25 +2499,22 @@
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -2507,25 +2523,22 @@
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -2534,25 +2547,22 @@
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -2561,25 +2571,22 @@
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -2588,80 +2595,71 @@
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D43">
         <v>5</v>
       </c>
@@ -2669,15 +2667,12 @@
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2686,8 +2681,9 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{B13A9B87-7D9C-4A52-A729-C79101EF5EC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/database/seeders/data/users.xlsx
+++ b/database/seeders/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\syaukaniabr\projects\laravel\djpb-inzil-app\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE3F82-10C5-48C2-BDF9-04758A1D4BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD064E76-81DA-4AFF-9860-64678A0B86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1192,7 +1192,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1200,8 +1200,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1624,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1684,7 @@
       <c r="F2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I2" s="2"/>
@@ -1709,7 +1708,7 @@
       <c r="F3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="2"/>
@@ -1733,7 +1732,7 @@
       <c r="F4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I4" s="2"/>
@@ -1757,7 +1756,7 @@
       <c r="F5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I5" s="2"/>
@@ -1781,7 +1780,7 @@
       <c r="F6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>175</v>
       </c>
       <c r="I6" s="2"/>
@@ -1805,7 +1804,7 @@
       <c r="F7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I7" s="2"/>
@@ -1829,7 +1828,7 @@
       <c r="F8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I8" s="2"/>
@@ -1853,7 +1852,7 @@
       <c r="F9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="1" t="s">
         <v>177</v>
       </c>
       <c r="I9" s="2"/>
@@ -1877,7 +1876,7 @@
       <c r="F10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="1" t="s">
         <v>183</v>
       </c>
       <c r="I10" s="2"/>
@@ -1901,7 +1900,7 @@
       <c r="F11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>215</v>
       </c>
       <c r="I11" s="2"/>
@@ -1925,7 +1924,7 @@
       <c r="F12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>184</v>
       </c>
       <c r="I12" s="2"/>
@@ -1949,7 +1948,7 @@
       <c r="F13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I13" s="2"/>
@@ -1973,7 +1972,7 @@
       <c r="F14" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="1" t="s">
         <v>185</v>
       </c>
       <c r="I14" s="2"/>
@@ -1997,7 +1996,7 @@
       <c r="F15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="1" t="s">
         <v>186</v>
       </c>
       <c r="I15" s="2"/>
@@ -2021,7 +2020,7 @@
       <c r="F16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>195</v>
       </c>
       <c r="I16" s="2"/>
@@ -2045,7 +2044,7 @@
       <c r="F17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="1" t="s">
         <v>179</v>
       </c>
       <c r="I17" s="2"/>
@@ -2069,7 +2068,7 @@
       <c r="F18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="1" t="s">
         <v>187</v>
       </c>
       <c r="I18" s="2"/>
@@ -2093,7 +2092,7 @@
       <c r="F19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I19" s="2"/>
@@ -2117,7 +2116,7 @@
       <c r="F20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I20" s="2"/>
@@ -2141,7 +2140,7 @@
       <c r="F21" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>189</v>
       </c>
       <c r="I21" s="2"/>
@@ -2165,7 +2164,7 @@
       <c r="F22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>190</v>
       </c>
       <c r="I22" s="2"/>
@@ -2189,7 +2188,7 @@
       <c r="F23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1" t="s">
         <v>191</v>
       </c>
       <c r="I23" s="2"/>
@@ -2213,7 +2212,7 @@
       <c r="F24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I24" s="2"/>
@@ -2237,7 +2236,7 @@
       <c r="F25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="1" t="s">
         <v>192</v>
       </c>
       <c r="I25" s="2"/>
@@ -2261,7 +2260,7 @@
       <c r="F26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="1" t="s">
         <v>193</v>
       </c>
       <c r="I26" s="2"/>
@@ -2285,7 +2284,7 @@
       <c r="F27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="1" t="s">
         <v>198</v>
       </c>
       <c r="I27" s="2"/>
@@ -2309,7 +2308,7 @@
       <c r="F28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="1" t="s">
         <v>199</v>
       </c>
       <c r="I28" s="2"/>
@@ -2333,7 +2332,7 @@
       <c r="F29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="1" t="s">
         <v>200</v>
       </c>
       <c r="I29" s="2"/>
@@ -2357,7 +2356,7 @@
       <c r="F30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="1" t="s">
         <v>201</v>
       </c>
       <c r="I30" s="2"/>
@@ -2381,7 +2380,7 @@
       <c r="F31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="1" t="s">
         <v>202</v>
       </c>
       <c r="I31" s="2"/>
@@ -2405,7 +2404,7 @@
       <c r="F32" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I32" s="2"/>
@@ -2429,7 +2428,7 @@
       <c r="F33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="1" t="s">
         <v>204</v>
       </c>
       <c r="I33" s="2"/>
@@ -2453,7 +2452,7 @@
       <c r="F34" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="1" t="s">
         <v>205</v>
       </c>
       <c r="I34" s="2"/>
@@ -2477,7 +2476,7 @@
       <c r="F35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>206</v>
       </c>
       <c r="I35" s="2"/>
@@ -2501,7 +2500,7 @@
       <c r="F36" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="1" t="s">
         <v>207</v>
       </c>
       <c r="I36" s="2"/>
@@ -2525,7 +2524,7 @@
       <c r="F37" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="1" t="s">
         <v>208</v>
       </c>
       <c r="I37" s="2"/>
@@ -2549,7 +2548,7 @@
       <c r="F38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="1" t="s">
         <v>209</v>
       </c>
       <c r="I38" s="2"/>
@@ -2573,7 +2572,7 @@
       <c r="F39" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="1" t="s">
         <v>210</v>
       </c>
       <c r="I39" s="2"/>
@@ -2597,7 +2596,7 @@
       <c r="F40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I40" s="2"/>
@@ -2621,7 +2620,7 @@
       <c r="F41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="1" t="s">
         <v>212</v>
       </c>
       <c r="I41" s="2"/>
@@ -2645,7 +2644,7 @@
       <c r="F42" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I42" s="2"/>
@@ -2669,7 +2668,7 @@
       <c r="F43" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="1" t="s">
         <v>214</v>
       </c>
       <c r="I43" s="2"/>

--- a/database/seeders/data/users.xlsx
+++ b/database/seeders/data/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\syaukaniabr\projects\laravel\djpb-inzil-app\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD064E76-81DA-4AFF-9860-64678A0B86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E450C4-DD84-4F1A-82E4-96E0CE0864C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Nama</t>
   </si>
@@ -693,13 +693,19 @@
   </si>
   <si>
     <t>Photo Profile</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>+6282149095841</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +851,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1192,7 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1201,6 +1213,7 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1247,7 +1260,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1290,8 +1307,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query" backgroundRefresh="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10" unboundColumnsRight="1">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="11" unboundColumnsRight="2">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Nama" tableColumnId="1"/>
       <queryTableField id="6" name="Email" tableColumnId="2"/>
       <queryTableField id="2" name="NIP" tableColumnId="3"/>
@@ -1299,6 +1316,7 @@
       <queryTableField id="4" name="BagianBidang" tableColumnId="5"/>
       <queryTableField id="5" name="Tanggal Lahir" tableColumnId="6"/>
       <queryTableField id="9" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
     <queryTableDeletedFields count="2">
       <deletedField name="Item Type"/>
@@ -1309,16 +1327,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:G43" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Title" name="Nama" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Email" name="Email" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="NIP" name="NIP" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Jabatan" name="Jabatan" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="UnitKerja" name="BagianBidang" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TanggalLahir" name="Tanggal Lahir" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B5566D31-C0DE-4975-950B-428896D6ABF1}" uniqueName="7" name="Photo Profile" queryTableFieldId="9" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:H43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Title" name="Nama" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Email" name="Email" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="NIP" name="NIP" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Jabatan" name="Jabatan" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="UnitKerja" name="BagianBidang" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TanggalLahir" name="Tanggal Lahir" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B5566D31-C0DE-4975-950B-428896D6ABF1}" uniqueName="7" name="Photo Profile" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9A6D1AE2-37D4-4834-A56A-25340331BFC0}" uniqueName="8" name="Phone" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1623,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,6 +1683,9 @@
       <c r="G1" t="s">
         <v>216</v>
       </c>
+      <c r="H1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1687,6 +1709,7 @@
       <c r="G2" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1711,6 +1734,9 @@
       <c r="G3" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1735,6 +1761,7 @@
       <c r="G4" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1759,6 +1786,7 @@
       <c r="G5" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1783,6 +1811,7 @@
       <c r="G6" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1807,6 +1836,7 @@
       <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1831,6 +1861,7 @@
       <c r="G8" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1855,6 +1886,7 @@
       <c r="G9" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1879,6 +1911,7 @@
       <c r="G10" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1903,6 +1936,7 @@
       <c r="G11" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1927,6 +1961,7 @@
       <c r="G12" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1951,6 +1986,7 @@
       <c r="G13" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1975,6 +2011,7 @@
       <c r="G14" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1999,6 +2036,7 @@
       <c r="G15" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2023,6 +2061,7 @@
       <c r="G16" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2047,6 +2086,7 @@
       <c r="G17" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2071,6 +2111,7 @@
       <c r="G18" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2095,6 +2136,7 @@
       <c r="G19" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2119,6 +2161,7 @@
       <c r="G20" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2143,6 +2186,7 @@
       <c r="G21" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2167,6 +2211,7 @@
       <c r="G22" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2191,6 +2236,7 @@
       <c r="G23" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2215,6 +2261,7 @@
       <c r="G24" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2239,6 +2286,7 @@
       <c r="G25" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2263,6 +2311,7 @@
       <c r="G26" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2287,6 +2336,7 @@
       <c r="G27" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2311,6 +2361,7 @@
       <c r="G28" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2335,6 +2386,7 @@
       <c r="G29" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2359,6 +2411,7 @@
       <c r="G30" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2383,6 +2436,7 @@
       <c r="G31" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2407,6 +2461,7 @@
       <c r="G32" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2431,6 +2486,7 @@
       <c r="G33" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2455,6 +2511,7 @@
       <c r="G34" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2479,6 +2536,7 @@
       <c r="G35" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2503,6 +2561,7 @@
       <c r="G36" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2527,6 +2586,7 @@
       <c r="G37" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2551,6 +2611,7 @@
       <c r="G38" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2575,6 +2636,7 @@
       <c r="G39" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2599,6 +2661,7 @@
       <c r="G40" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2623,6 +2686,7 @@
       <c r="G41" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2647,6 +2711,7 @@
       <c r="G42" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2671,9 +2736,11 @@
       <c r="G43" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7329C114-D6EB-4909-9C57-4ABFC70E59F1}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{A582FE80-2D0D-41B7-9FE0-03F6FE0D5C02}"/>
